--- a/Tournaments/Tournaments.xlsx
+++ b/Tournaments/Tournaments.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>CONMEBOL</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>FIFA</t>
+  </si>
+  <si>
+    <t>Invitacional</t>
   </si>
 </sst>
 </file>
@@ -455,9 +458,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -467,10 +472,10 @@
     <col min="4" max="5" width="34.5703125" customWidth="1"/>
     <col min="6" max="6" width="39" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="35.5703125" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -492,8 +497,11 @@
       <c r="G1" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="str">
         <f>"- Eliminatorias Copa America"</f>
         <v>- Eliminatorias Copa America</v>
@@ -517,8 +525,12 @@
         <f>"- Copa del Mundo"</f>
         <v>- Copa del Mundo</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H2" s="1" t="str">
+        <f>"- Brazil Independence Cup"</f>
+        <v>- Brazil Independence Cup</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="str">
         <f>"- Copa America "</f>
         <v xml:space="preserve">- Copa America </v>
@@ -543,8 +555,12 @@
         <f>"- Repechajes Copa del Mundo"</f>
         <v>- Repechajes Copa del Mundo</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H3" s="1" t="str">
+        <f>"- Taca das Nacoes"</f>
+        <v>- Taca das Nacoes</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="str">
         <f>"- Eliminatorias Copa del Mundo"</f>
         <v>- Eliminatorias Copa del Mundo</v>
@@ -568,8 +584,12 @@
         <f>"- Copa Confederaciones"</f>
         <v>- Copa Confederaciones</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H4" s="1" t="str">
+        <f>"- Superclasico de las Americas"</f>
+        <v>- Superclasico de las Americas</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
         <f>"- Eliminatorias Juegos Olimpicos"</f>
         <v>- Eliminatorias Juegos Olimpicos</v>
@@ -594,8 +614,12 @@
         <f>"- Juegos Olimpicos"</f>
         <v>- Juegos Olimpicos</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H5" s="1" t="str">
+        <f>"- Roca Cup"</f>
+        <v>- Roca Cup</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="str">
         <f>"- Eliminatorias Copa del Mundo Sub 20"</f>
         <v>- Eliminatorias Copa del Mundo Sub 20</v>
@@ -622,8 +646,12 @@
         <f>"- Copa del Mundo Sub 20"</f>
         <v>- Copa del Mundo Sub 20</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H6" s="1" t="str">
+        <f>"- Taca do Atlantico"</f>
+        <v>- Taca do Atlantico</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="str">
         <f>"- Eliminatorias Copa del Mundo Sub 17"</f>
         <v>- Eliminatorias Copa del Mundo Sub 17</v>
@@ -652,8 +680,12 @@
         <f>"- Copa del Mundo Sub 17"</f>
         <v>- Copa del Mundo Sub 17</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H7" s="1" t="str">
+        <f>"- 1980 Mundialito"</f>
+        <v>- 1980 Mundialito</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="str">
         <f>"- Eliminatorias Copa del Mundo Futsal"</f>
         <v>- Eliminatorias Copa del Mundo Futsal</v>
@@ -682,8 +714,12 @@
         <f>"- Copa del Mundo Futsal"</f>
         <v>- Copa del Mundo Futsal</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H8" s="1" t="str">
+        <f>"- Turnoi de France"</f>
+        <v>- Turnoi de France</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="str">
         <f>"- Eliminatorias Copa del Mundo Sub 17"</f>
         <v>- Eliminatorias Copa del Mundo Sub 17</v>
@@ -704,8 +740,12 @@
         <f>"- Brazil Grand Prix Futsal"</f>
         <v>- Brazil Grand Prix Futsal</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H9" s="1" t="str">
+        <f>"- Toulon Tournament"</f>
+        <v>- Toulon Tournament</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="str">
         <f>"- Eliminatorias Copa del Mundo Futsal"</f>
         <v>- Eliminatorias Copa del Mundo Futsal</v>
@@ -714,8 +754,12 @@
         <f>"- Eliminatorias Copa del Mundo Futsal"</f>
         <v>- Eliminatorias Copa del Mundo Futsal</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G10" s="1" t="str">
+        <f>"- Juegos Paramericanos"</f>
+        <v>- Juegos Paramericanos</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
@@ -732,11 +776,14 @@
         <v>9</v>
       </c>
       <c r="G11">
+        <v>9</v>
+      </c>
+      <c r="H11">
         <v>8</v>
       </c>
-      <c r="H11">
-        <f>SUM(A11:G11)</f>
-        <v>48</v>
+      <c r="I11">
+        <f>SUM(A11:H11)</f>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/Tournaments/Tournaments.xlsx
+++ b/Tournaments/Tournaments.xlsx
@@ -460,9 +460,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -772,6 +770,9 @@
       <c r="D11">
         <v>8</v>
       </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
       <c r="F11">
         <v>9</v>
       </c>
@@ -783,7 +784,7 @@
       </c>
       <c r="I11">
         <f>SUM(A11:H11)</f>
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Tournaments/Tournaments.xlsx
+++ b/Tournaments/Tournaments.xlsx
@@ -608,7 +608,7 @@
       <c r="F5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="1" t="str">
+      <c r="G5" s="2" t="str">
         <f>"- Juegos Olimpicos"</f>
         <v>- Juegos Olimpicos</v>
       </c>
@@ -747,6 +747,10 @@
       <c r="B10" s="1" t="str">
         <f>"- Eliminatorias Copa del Mundo Futsal"</f>
         <v>- Eliminatorias Copa del Mundo Futsal</v>
+      </c>
+      <c r="D10" s="1" t="str">
+        <f>"- Trans Tasman Cup"</f>
+        <v>- Trans Tasman Cup</v>
       </c>
       <c r="F10" s="1" t="str">
         <f>"- Eliminatorias Copa del Mundo Futsal"</f>

--- a/Tournaments/Tournaments.xlsx
+++ b/Tournaments/Tournaments.xlsx
@@ -141,7 +141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -150,6 +150,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -458,7 +461,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -569,7 +572,7 @@
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -762,33 +765,39 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="D11" s="2" t="str">
+        <f>"- OFC Nations Cup"</f>
+        <v>- OFC Nations Cup</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>7</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>9</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>7</v>
       </c>
-      <c r="D11">
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
         <v>8</v>
       </c>
-      <c r="E11">
+      <c r="F12">
+        <v>9</v>
+      </c>
+      <c r="G12">
+        <v>9</v>
+      </c>
+      <c r="H12">
         <v>8</v>
       </c>
-      <c r="F11">
-        <v>9</v>
-      </c>
-      <c r="G11">
-        <v>9</v>
-      </c>
-      <c r="H11">
-        <v>8</v>
-      </c>
-      <c r="I11">
-        <f>SUM(A11:H11)</f>
-        <v>65</v>
+      <c r="I12">
+        <f>SUM(A12:H12)</f>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/Tournaments/Tournaments.xlsx
+++ b/Tournaments/Tournaments.xlsx
@@ -463,7 +463,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -711,7 +713,7 @@
         <f>"- Eliminatorias Copa del Mundo Sub 20"</f>
         <v>- Eliminatorias Copa del Mundo Sub 20</v>
       </c>
-      <c r="G8" s="1" t="str">
+      <c r="G8" s="2" t="str">
         <f>"- Copa del Mundo Futsal"</f>
         <v>- Copa del Mundo Futsal</v>
       </c>

--- a/Tournaments/Tournaments.xlsx
+++ b/Tournaments/Tournaments.xlsx
@@ -464,7 +464,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,7 +521,7 @@
       <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G2" s="1" t="str">

--- a/Tournaments/Tournaments.xlsx
+++ b/Tournaments/Tournaments.xlsx
@@ -463,9 +463,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -509,7 +507,7 @@
         <f>"- Eliminatorias Copa America"</f>
         <v>- Eliminatorias Copa America</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">

--- a/Tournaments/Tournaments.xlsx
+++ b/Tournaments/Tournaments.xlsx
@@ -549,7 +549,7 @@
       <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G3" s="1" t="str">
@@ -763,6 +763,10 @@
         <f>"- Juegos Paramericanos"</f>
         <v>- Juegos Paramericanos</v>
       </c>
+      <c r="H10" s="1" t="str">
+        <f>"- China Cup"</f>
+        <v>- China Cup</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D11" s="2" t="str">
@@ -793,11 +797,11 @@
         <v>9</v>
       </c>
       <c r="H12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I12">
         <f>SUM(A12:H12)</f>
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/Tournaments/Tournaments.xlsx
+++ b/Tournaments/Tournaments.xlsx
@@ -763,7 +763,7 @@
         <f>"- Juegos Paramericanos"</f>
         <v>- Juegos Paramericanos</v>
       </c>
-      <c r="H10" s="1" t="str">
+      <c r="H10" s="2" t="str">
         <f>"- China Cup"</f>
         <v>- China Cup</v>
       </c>
